--- a/va_facility_data_2025-02-20/Caldwell VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Caldwell%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Caldwell VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Caldwell%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R8770267de0e440e4952f74750e37d6ed"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R262c35473a324e84bba7db04f0a965ae"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R2f83a21148fc43399260f8e74ba78b62"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="Rb4595d4bd4124b989182147d11f3ca60"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R258ef149c26d4c1d90af7f153d044ebf"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R54ae13771af948c6b98abe7fe778331e"/>
   </x:sheets>
 </x:workbook>
 </file>
